--- a/entrega 05/Tabla de autoría.xlsx
+++ b/entrega 05/Tabla de autoría.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/caa5dc9e8687d1ff/Escritorio/repositorio_cortes_campos/entrega 05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A1E98D3-C394-4B9B-953C-588127142D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{9A1E98D3-C394-4B9B-953C-588127142D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51B76806-3D0B-4BED-BB4A-4B31D8DBEC58}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{53AB5845-6433-455E-A8C8-DA4988FF9484}"/>
+    <workbookView xWindow="3915" yWindow="1920" windowWidth="15375" windowHeight="7785" xr2:uid="{53AB5845-6433-455E-A8C8-DA4988FF9484}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t xml:space="preserve">Elemento </t>
   </si>
@@ -50,19 +50,16 @@
     <t xml:space="preserve">Gráficos </t>
   </si>
   <si>
-    <t xml:space="preserve">todos </t>
-  </si>
-  <si>
     <t>Dibujos</t>
   </si>
   <si>
     <t>Parráfos</t>
   </si>
   <si>
-    <t>todos</t>
-  </si>
-  <si>
     <t>Código</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,28 +467,31 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
